--- a/m1/u1/ejercicios/20191028/BuscarV/BUSCARV Ejemplo.xlsx
+++ b/m1/u1/ejercicios/20191028/BuscarV/BUSCARV Ejemplo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\BuscarV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\BuscarV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="13125" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="centro de estudios" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +196,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1"/>
@@ -744,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -756,10 +757,10 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
@@ -771,13 +772,13 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>37299</v>
       </c>
@@ -810,10 +811,17 @@
       <c r="D4" s="10">
         <v>200</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="5">
+        <f>VLOOKUP(C4,especialidad,2,0)*1.21*D4</f>
+        <v>1693.9999999999998</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF((VLOOKUP(C4,especialidad,2,0)*D4)&gt;1500,E4*30%,E4*15%)+E4</f>
+        <v>1948.0999999999997</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>37300</v>
       </c>
@@ -826,10 +834,17 @@
       <c r="D5" s="10">
         <v>200</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="5">
+        <f>VLOOKUP(C5,especialidad,2,0)*1.21*D5</f>
+        <v>1693.9999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF((VLOOKUP(C5,especialidad,2,0)*D5)&gt;1500,E5*30%,E5*15%)+E5</f>
+        <v>1948.0999999999997</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>37301</v>
       </c>
@@ -842,10 +857,16 @@
       <c r="D6" s="10">
         <v>200</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5">
+        <f>VLOOKUP(C6,especialidad,2,0)*1.21*D6</f>
+        <v>1693.9999999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <f>IF((VLOOKUP(C6,especialidad,2,0)*D6)&gt;1500,E6*30%,E6*15%)+E6</f>
+        <v>1948.0999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>37302</v>
       </c>
@@ -858,10 +879,16 @@
       <c r="D7" s="10">
         <v>150</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5">
+        <f>VLOOKUP(C7,especialidad,2,0)*1.21*D7</f>
+        <v>1179.75</v>
+      </c>
+      <c r="F7" s="5">
+        <f>IF((VLOOKUP(C7,especialidad,2,0)*D7)&gt;1500,E7*30%,E7*15%)+E7</f>
+        <v>1356.7125000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>37305</v>
       </c>
@@ -874,10 +901,16 @@
       <c r="D8" s="10">
         <v>150</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5">
+        <f>VLOOKUP(C8,especialidad,2,0)*1.21*D8</f>
+        <v>1179.75</v>
+      </c>
+      <c r="F8" s="5">
+        <f>IF((VLOOKUP(C8,especialidad,2,0)*D8)&gt;1500,E8*30%,E8*15%)+E8</f>
+        <v>1356.7125000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>37306</v>
       </c>
@@ -890,10 +923,16 @@
       <c r="D9" s="10">
         <v>100</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5">
+        <f>VLOOKUP(C9,especialidad,2,0)*1.21*D9</f>
+        <v>726</v>
+      </c>
+      <c r="F9" s="5">
+        <f>IF((VLOOKUP(C9,especialidad,2,0)*D9)&gt;1500,E9*30%,E9*15%)+E9</f>
+        <v>834.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>37307</v>
       </c>
@@ -906,10 +945,16 @@
       <c r="D10" s="10">
         <v>100</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="5">
+        <f>VLOOKUP(C10,especialidad,2,0)*1.21*D10</f>
+        <v>726</v>
+      </c>
+      <c r="F10" s="5">
+        <f>IF((VLOOKUP(C10,especialidad,2,0)*D10)&gt;1500,E10*30%,E10*15%)+E10</f>
+        <v>834.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>37308</v>
       </c>
@@ -922,10 +967,16 @@
       <c r="D11" s="10">
         <v>150</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <f>VLOOKUP(C11,especialidad,2,0)*1.21*D11</f>
+        <v>1179.75</v>
+      </c>
+      <c r="F11" s="5">
+        <f>IF((VLOOKUP(C11,especialidad,2,0)*D11)&gt;1500,E11*30%,E11*15%)+E11</f>
+        <v>1356.7125000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>37309</v>
       </c>
@@ -938,10 +989,16 @@
       <c r="D12" s="10">
         <v>100</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="5">
+        <f>VLOOKUP(C12,especialidad,2,0)*1.21*D12</f>
+        <v>726</v>
+      </c>
+      <c r="F12" s="5">
+        <f>IF((VLOOKUP(C12,especialidad,2,0)*D12)&gt;1500,E12*30%,E12*15%)+E12</f>
+        <v>834.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>37312</v>
       </c>
@@ -954,10 +1011,16 @@
       <c r="D13" s="10">
         <v>200</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="5">
+        <f>VLOOKUP(C13,especialidad,2,0)*1.21*D13</f>
+        <v>1693.9999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f>IF((VLOOKUP(C13,especialidad,2,0)*D13)&gt;1500,E13*30%,E13*15%)+E13</f>
+        <v>1948.0999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>37313</v>
       </c>
@@ -970,10 +1033,16 @@
       <c r="D14" s="10">
         <v>200</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="5">
+        <f>VLOOKUP(C14,especialidad,2,0)*1.21*D14</f>
+        <v>1693.9999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <f>IF((VLOOKUP(C14,especialidad,2,0)*D14)&gt;1500,E14*30%,E14*15%)+E14</f>
+        <v>1948.0999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>37314</v>
       </c>
@@ -986,10 +1055,16 @@
       <c r="D15" s="10">
         <v>100</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="5">
+        <f>VLOOKUP(C15,especialidad,2,0)*1.21*D15</f>
+        <v>726</v>
+      </c>
+      <c r="F15" s="5">
+        <f>IF((VLOOKUP(C15,especialidad,2,0)*D15)&gt;1500,E15*30%,E15*15%)+E15</f>
+        <v>834.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>37315</v>
       </c>
@@ -1002,13 +1077,19 @@
       <c r="D16" s="10">
         <v>150</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16" s="5">
+        <f>VLOOKUP(C16,especialidad,2,0)*1.21*D16</f>
+        <v>1179.75</v>
+      </c>
+      <c r="F16" s="5">
+        <f>IF((VLOOKUP(C16,especialidad,2,0)*D16)&gt;1500,E16*30%,E16*15%)+E16</f>
+        <v>1356.7125000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1024,12 +1105,26 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f>(150*6.5*(20/100))</f>
+        <v>195</v>
+      </c>
+      <c r="K22" s="12">
+        <f>D16*B20</f>
+        <v>975</v>
+      </c>
+      <c r="L22" s="12">
+        <f>K22+J22</f>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
